--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H2">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J2">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N2">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O2">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P2">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q2">
-        <v>1.780942268912</v>
+        <v>2.795108457094</v>
       </c>
       <c r="R2">
-        <v>16.028480420208</v>
+        <v>25.155976113846</v>
       </c>
       <c r="S2">
-        <v>0.08125596770753762</v>
+        <v>0.082765355082486</v>
       </c>
       <c r="T2">
-        <v>0.08125596770753764</v>
+        <v>0.08276535508248599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H3">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J3">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>13.998014</v>
       </c>
       <c r="O3">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P3">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q3">
-        <v>3.145067564180445</v>
+        <v>3.520598507098</v>
       </c>
       <c r="R3">
-        <v>28.305608077624</v>
+        <v>31.685386563882</v>
       </c>
       <c r="S3">
-        <v>0.1434945494270245</v>
+        <v>0.1042476848450381</v>
       </c>
       <c r="T3">
-        <v>0.1434945494270245</v>
+        <v>0.1042476848450381</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H4">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J4">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N4">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O4">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P4">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q4">
-        <v>1.025838319882667</v>
+        <v>2.16554569196</v>
       </c>
       <c r="R4">
-        <v>9.232544878943999</v>
+        <v>19.48991122764</v>
       </c>
       <c r="S4">
-        <v>0.04680414792134925</v>
+        <v>0.06412350751096084</v>
       </c>
       <c r="T4">
-        <v>0.04680414792134925</v>
+        <v>0.06412350751096084</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6740386666666667</v>
+        <v>0.754521</v>
       </c>
       <c r="H5">
-        <v>2.022116</v>
+        <v>2.263563</v>
       </c>
       <c r="I5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="J5">
-        <v>0.3058319194585966</v>
+        <v>0.2768403531129761</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N5">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O5">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P5">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q5">
-        <v>0.7512778808777778</v>
+        <v>0.8680555354189999</v>
       </c>
       <c r="R5">
-        <v>6.7615009279</v>
+        <v>7.812499818771</v>
       </c>
       <c r="S5">
-        <v>0.03427725440268518</v>
+        <v>0.02570380567449118</v>
       </c>
       <c r="T5">
-        <v>0.03427725440268519</v>
+        <v>0.02570380567449118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H6">
         <v>2.919578</v>
       </c>
       <c r="I6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J6">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N6">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O6">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P6">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q6">
-        <v>2.571365771096001</v>
+        <v>3.605173418608445</v>
       </c>
       <c r="R6">
-        <v>23.14229193986401</v>
+        <v>32.446560767476</v>
       </c>
       <c r="S6">
-        <v>0.1173192515600674</v>
+        <v>0.1067520143512746</v>
       </c>
       <c r="T6">
-        <v>0.1173192515600675</v>
+        <v>0.1067520143512746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H7">
         <v>2.919578</v>
       </c>
       <c r="I7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J7">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>13.998014</v>
       </c>
       <c r="O7">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P7">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q7">
         <v>4.540921524232445</v>
       </c>
       <c r="R7">
-        <v>40.86829371809201</v>
+        <v>40.868293718092</v>
       </c>
       <c r="S7">
-        <v>0.2071807599697809</v>
+        <v>0.1344602501562831</v>
       </c>
       <c r="T7">
-        <v>0.2071807599697809</v>
+        <v>0.1344602501562831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H8">
         <v>2.919578</v>
       </c>
       <c r="I8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J8">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N8">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O8">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P8">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q8">
-        <v>1.481129168794667</v>
+        <v>2.793153784648889</v>
       </c>
       <c r="R8">
-        <v>13.330162519152</v>
+        <v>25.13838406184</v>
       </c>
       <c r="S8">
-        <v>0.06757691476647089</v>
+        <v>0.0827074756973126</v>
       </c>
       <c r="T8">
-        <v>0.06757691476647087</v>
+        <v>0.0827074756973126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9731926666666668</v>
+        <v>0.9731926666666667</v>
       </c>
       <c r="H9">
         <v>2.919578</v>
       </c>
       <c r="I9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="J9">
-        <v>0.4415672215387696</v>
+        <v>0.3570728998754956</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N9">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O9">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P9">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q9">
-        <v>1.084712436327778</v>
+        <v>1.119631238002889</v>
       </c>
       <c r="R9">
-        <v>9.762411926950001</v>
+        <v>10.076681142026</v>
       </c>
       <c r="S9">
-        <v>0.0494902952424504</v>
+        <v>0.03315315967062529</v>
       </c>
       <c r="T9">
-        <v>0.0494902952424504</v>
+        <v>0.03315315967062529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H10">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J10">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N10">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O10">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P10">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q10">
-        <v>1.3425658425</v>
+        <v>2.898537557307333</v>
       </c>
       <c r="R10">
-        <v>12.0830925825</v>
+        <v>26.086838015766</v>
       </c>
       <c r="S10">
-        <v>0.06125492591630632</v>
+        <v>0.08582797191343305</v>
       </c>
       <c r="T10">
-        <v>0.06125492591630633</v>
+        <v>0.08582797191343305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H11">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J11">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>13.998014</v>
       </c>
       <c r="O11">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P11">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q11">
-        <v>2.37091362125</v>
+        <v>3.650873357391334</v>
       </c>
       <c r="R11">
-        <v>21.33822259125</v>
+        <v>32.85786021652201</v>
       </c>
       <c r="S11">
-        <v>0.1081735685701614</v>
+        <v>0.1081052254050404</v>
       </c>
       <c r="T11">
-        <v>0.1081735685701614</v>
+        <v>0.1081052254050404</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H12">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J12">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N12">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O12">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P12">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q12">
-        <v>0.773329665</v>
+        <v>2.245678697826667</v>
       </c>
       <c r="R12">
-        <v>6.959966985</v>
+        <v>20.21110828044</v>
       </c>
       <c r="S12">
-        <v>0.0352833729556597</v>
+        <v>0.06649630870497136</v>
       </c>
       <c r="T12">
-        <v>0.0352833729556597</v>
+        <v>0.06649630870497138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.508125</v>
+        <v>0.7824410000000001</v>
       </c>
       <c r="H13">
-        <v>1.524375</v>
+        <v>2.347323</v>
       </c>
       <c r="I13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="J13">
-        <v>0.2305518240420917</v>
+        <v>0.2870844452706686</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N13">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O13">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P13">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q13">
-        <v>0.566351890625</v>
+        <v>0.9001767229656668</v>
       </c>
       <c r="R13">
-        <v>5.097167015625</v>
+        <v>8.101590506691002</v>
       </c>
       <c r="S13">
-        <v>0.02583995659996421</v>
+        <v>0.0266549392472238</v>
       </c>
       <c r="T13">
-        <v>0.02583995659996421</v>
+        <v>0.0266549392472238</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H14">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I14">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J14">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.642196</v>
+        <v>3.704480666666667</v>
       </c>
       <c r="N14">
-        <v>7.926588000000001</v>
+        <v>11.113442</v>
       </c>
       <c r="O14">
-        <v>0.26568831615543</v>
+        <v>0.298964201395561</v>
       </c>
       <c r="P14">
-        <v>0.26568831615543</v>
+        <v>0.2989642013955609</v>
       </c>
       <c r="Q14">
-        <v>0.12839751462</v>
+        <v>0.7976438378391111</v>
       </c>
       <c r="R14">
-        <v>1.15557763158</v>
+        <v>7.178794540552</v>
       </c>
       <c r="S14">
-        <v>0.005858170971518633</v>
+        <v>0.02361886004836725</v>
       </c>
       <c r="T14">
-        <v>0.005858170971518634</v>
+        <v>0.02361886004836725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H15">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J15">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>13.998014</v>
       </c>
       <c r="O15">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="P15">
-        <v>0.4691941563230151</v>
+        <v>0.3765624616238499</v>
       </c>
       <c r="Q15">
-        <v>0.2267444967766667</v>
+        <v>1.004677903487111</v>
       </c>
       <c r="R15">
-        <v>2.04070047099</v>
+        <v>9.042101131384001</v>
       </c>
       <c r="S15">
-        <v>0.0103452783560482</v>
+        <v>0.02974930121748829</v>
       </c>
       <c r="T15">
-        <v>0.0103452783560482</v>
+        <v>0.02974930121748829</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H16">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J16">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.521928</v>
+        <v>2.870093333333334</v>
       </c>
       <c r="N16">
-        <v>4.565784</v>
+        <v>8.610280000000001</v>
       </c>
       <c r="O16">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="P16">
-        <v>0.1530387933483365</v>
+        <v>0.2316263029934534</v>
       </c>
       <c r="Q16">
-        <v>0.07395809116</v>
+        <v>0.6179846697422222</v>
       </c>
       <c r="R16">
-        <v>0.66562282044</v>
+        <v>5.561862027680001</v>
       </c>
       <c r="S16">
-        <v>0.003374357704856645</v>
+        <v>0.0182990110802086</v>
       </c>
       <c r="T16">
-        <v>0.003374357704856645</v>
+        <v>0.0182990110802086</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.048595</v>
+        <v>0.2153186666666667</v>
       </c>
       <c r="H17">
-        <v>0.145785</v>
+        <v>0.645956</v>
       </c>
       <c r="I17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="J17">
-        <v>0.02204903496054208</v>
+        <v>0.07900230174085969</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.114591666666667</v>
+        <v>1.150472333333333</v>
       </c>
       <c r="N17">
-        <v>3.343775</v>
+        <v>3.451417</v>
       </c>
       <c r="O17">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="P17">
-        <v>0.1120787341732184</v>
+        <v>0.09284703398713583</v>
       </c>
       <c r="Q17">
-        <v>0.05416358204166666</v>
+        <v>0.2477181688502222</v>
       </c>
       <c r="R17">
-        <v>0.487472238375</v>
+        <v>2.229463519652</v>
       </c>
       <c r="S17">
-        <v>0.002471227928118594</v>
+        <v>0.007335129394795559</v>
       </c>
       <c r="T17">
-        <v>0.002471227928118594</v>
+        <v>0.007335129394795559</v>
       </c>
     </row>
   </sheetData>
